--- a/EMI_Filter_BOM.xlsx
+++ b/EMI_Filter_BOM.xlsx
@@ -5,10 +5,10 @@
   <workbookPr showInkAnnotation="0" autoCompressPictures="0" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/arntzenc/Documents/FarmBot/EMI Filter/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/arntzenc/Documents/GitHub/EMI-Filter/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E907AB79-8237-7C4A-B481-918341405F2E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2B8AA21-7A44-D742-A6ED-1DEB387C4D1E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1480" yWindow="460" windowWidth="25600" windowHeight="17540" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,95 +31,53 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
-  <si>
-    <t>Index</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="38">
   <si>
     <t>Quantity</t>
   </si>
   <si>
-    <t>Part Number</t>
-  </si>
-  <si>
     <t>Manufacturer Part Number</t>
   </si>
   <si>
     <t>Description</t>
   </si>
   <si>
-    <t>Customer Reference</t>
-  </si>
-  <si>
-    <t>Available</t>
-  </si>
-  <si>
-    <t>Backorder</t>
-  </si>
-  <si>
-    <t>Unit Price</t>
-  </si>
-  <si>
-    <t>Extended Price USD</t>
-  </si>
-  <si>
-    <t>513-1115-1-ND</t>
-  </si>
-  <si>
     <t>CMS2-4-R</t>
   </si>
   <si>
     <t>CMC 102UH 2.8A 2LN SMD</t>
   </si>
   <si>
-    <t>SRU1038-470YCT-ND</t>
-  </si>
-  <si>
     <t>SRU1038-470Y</t>
   </si>
   <si>
     <t>FIXED IND 47UH 1.65A 121MOHM SMD</t>
   </si>
   <si>
-    <t>CVH160808-R47MCT-ND</t>
-  </si>
-  <si>
     <t>CVH160808-R47M</t>
   </si>
   <si>
     <t>FIXED IND 470NH 1.2A 125MOHM SMD</t>
   </si>
   <si>
-    <t>399-8181-1-ND</t>
-  </si>
-  <si>
     <t>C1206C225K5RACTU</t>
   </si>
   <si>
     <t>CAP CER 2.2UF 50V X7R 1206</t>
   </si>
   <si>
-    <t>541-10NCT-ND</t>
-  </si>
-  <si>
     <t>CRCW121010R0JNEAHP</t>
   </si>
   <si>
     <t>RES SMD 10 OHM 5% 3/4W 1210</t>
   </si>
   <si>
-    <t>478-9912-1-ND</t>
-  </si>
-  <si>
     <t>12105C106KAT2A</t>
   </si>
   <si>
     <t>CAP CER 10UF 50V X7R 1210</t>
   </si>
   <si>
-    <t>50PEV100M10X10.5CT-ND</t>
-  </si>
-  <si>
     <t>50PEV100M10X10.5</t>
   </si>
   <si>
@@ -135,10 +93,58 @@
     <t>C0805C105K3RACTU</t>
   </si>
   <si>
-    <t>5324K41</t>
-  </si>
-  <si>
     <t>MTSW-101-28-T-S-939</t>
+  </si>
+  <si>
+    <t>MOSFET N-CH 60V 6A 6CPH</t>
+  </si>
+  <si>
+    <t>Ref. Des.</t>
+  </si>
+  <si>
+    <t>RES SMD 2.8K OHM 1% 1/10W 0603</t>
+  </si>
+  <si>
+    <t>CAP CER 1UF 25V X7R 0805</t>
+  </si>
+  <si>
+    <t>CONN QC TAB 0.187 SOLDER</t>
+  </si>
+  <si>
+    <t>Manufacturer</t>
+  </si>
+  <si>
+    <t>Molex</t>
+  </si>
+  <si>
+    <t>Vishay</t>
+  </si>
+  <si>
+    <t>Kemet</t>
+  </si>
+  <si>
+    <t>Samtec</t>
+  </si>
+  <si>
+    <t>CONN QC RCPT 18-22AWG 0.187</t>
+  </si>
+  <si>
+    <t>CONN HEADER VERT 1POS</t>
+  </si>
+  <si>
+    <t>On Semi</t>
+  </si>
+  <si>
+    <t>Rubycon</t>
+  </si>
+  <si>
+    <t>AVX</t>
+  </si>
+  <si>
+    <t>Bourns</t>
+  </si>
+  <si>
+    <t>Eaton</t>
   </si>
 </sst>
 </file>
@@ -176,14 +182,25 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -498,299 +515,231 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J16"/>
+  <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="6.5" customWidth="1"/>
-    <col min="2" max="2" width="10.33203125" customWidth="1"/>
-    <col min="3" max="3" width="27.33203125" customWidth="1"/>
-    <col min="4" max="4" width="31.1640625" customWidth="1"/>
-    <col min="5" max="5" width="41.6640625" customWidth="1"/>
-    <col min="6" max="6" width="23.33203125" customWidth="1"/>
-    <col min="7" max="8" width="11.6640625" customWidth="1"/>
-    <col min="9" max="9" width="13" customWidth="1"/>
-    <col min="10" max="10" width="23.33203125" customWidth="1"/>
+    <col min="1" max="1" width="14.83203125" style="9" customWidth="1"/>
+    <col min="2" max="2" width="14.83203125" customWidth="1"/>
+    <col min="3" max="3" width="31.1640625" customWidth="1"/>
+    <col min="4" max="4" width="41.6640625" customWidth="1"/>
+    <col min="5" max="5" width="10.33203125" style="6" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" s="8"/>
+      <c r="B2" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="5">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" s="8"/>
+      <c r="B3" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E3" s="5">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" s="8"/>
+      <c r="B4" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" s="8"/>
+      <c r="B5" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" s="8"/>
+      <c r="B6" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" s="8"/>
+      <c r="B7" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E7" s="5">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" s="8"/>
+      <c r="B8" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D8" t="s">
+        <v>16</v>
+      </c>
+      <c r="E8" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" s="8"/>
+      <c r="B9" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C9" t="s">
+        <v>17</v>
+      </c>
+      <c r="D9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" s="8"/>
+      <c r="B10" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C10" t="s">
+        <v>18</v>
+      </c>
+      <c r="D10" t="s">
+        <v>23</v>
+      </c>
+      <c r="E10" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" s="8"/>
+      <c r="B11" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C11" t="s">
+        <v>19</v>
+      </c>
+      <c r="D11" t="s">
+        <v>24</v>
+      </c>
+      <c r="E11" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12" s="8"/>
+      <c r="B12" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C12" s="2">
+        <v>197084001</v>
+      </c>
+      <c r="D12" t="s">
+        <v>25</v>
+      </c>
+      <c r="E12" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13" s="8"/>
+      <c r="B13" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C13" s="2">
+        <v>190160008</v>
+      </c>
+      <c r="D13" t="s">
+        <v>31</v>
+      </c>
+      <c r="E13" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14" s="8"/>
+      <c r="B14" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C14" t="s">
+        <v>20</v>
+      </c>
+      <c r="D14" t="s">
+        <v>32</v>
+      </c>
+      <c r="E14" s="5">
         <v>7</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" ht="15" x14ac:dyDescent="0.2">
-      <c r="A2" s="3">
-        <v>1</v>
-      </c>
-      <c r="B2" s="3">
-        <v>1</v>
-      </c>
-      <c r="C2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G2" s="3">
-        <v>1</v>
-      </c>
-      <c r="H2" s="3">
-        <v>0</v>
-      </c>
-      <c r="I2">
-        <v>3.16</v>
-      </c>
-      <c r="J2" s="4">
-        <v>3.16</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" ht="15" x14ac:dyDescent="0.2">
-      <c r="A3" s="3">
-        <v>2</v>
-      </c>
-      <c r="B3" s="3">
-        <v>2</v>
-      </c>
-      <c r="C3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E3" t="s">
-        <v>15</v>
-      </c>
-      <c r="G3" s="3">
-        <v>2</v>
-      </c>
-      <c r="H3" s="3">
-        <v>0</v>
-      </c>
-      <c r="I3">
-        <v>0.98</v>
-      </c>
-      <c r="J3" s="4">
-        <v>1.96</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" ht="15" x14ac:dyDescent="0.2">
-      <c r="A4" s="3">
-        <v>3</v>
-      </c>
-      <c r="B4" s="3">
-        <v>2</v>
-      </c>
-      <c r="C4" t="s">
-        <v>16</v>
-      </c>
-      <c r="D4" t="s">
-        <v>17</v>
-      </c>
-      <c r="E4" t="s">
-        <v>18</v>
-      </c>
-      <c r="G4" s="3">
-        <v>2</v>
-      </c>
-      <c r="H4" s="3">
-        <v>0</v>
-      </c>
-      <c r="I4">
-        <v>0.21</v>
-      </c>
-      <c r="J4" s="4">
-        <v>0.42</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" ht="15" x14ac:dyDescent="0.2">
-      <c r="A5" s="3">
-        <v>4</v>
-      </c>
-      <c r="B5" s="3">
-        <v>2</v>
-      </c>
-      <c r="C5" t="s">
-        <v>19</v>
-      </c>
-      <c r="D5" t="s">
-        <v>20</v>
-      </c>
-      <c r="E5" t="s">
-        <v>21</v>
-      </c>
-      <c r="G5" s="3">
-        <v>0</v>
-      </c>
-      <c r="H5" s="3">
-        <v>2</v>
-      </c>
-      <c r="I5">
-        <v>0.28999999999999998</v>
-      </c>
-      <c r="J5" s="4">
-        <v>0.57999999999999996</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" ht="15" x14ac:dyDescent="0.2">
-      <c r="A6" s="3">
-        <v>5</v>
-      </c>
-      <c r="B6" s="3">
-        <v>2</v>
-      </c>
-      <c r="C6" t="s">
-        <v>22</v>
-      </c>
-      <c r="D6" t="s">
-        <v>23</v>
-      </c>
-      <c r="E6" t="s">
-        <v>24</v>
-      </c>
-      <c r="G6" s="3">
-        <v>2</v>
-      </c>
-      <c r="H6" s="3">
-        <v>0</v>
-      </c>
-      <c r="I6">
-        <v>0.43</v>
-      </c>
-      <c r="J6" s="4">
-        <v>0.86</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" ht="15" x14ac:dyDescent="0.2">
-      <c r="A7" s="3">
-        <v>6</v>
-      </c>
-      <c r="B7" s="3">
-        <v>4</v>
-      </c>
-      <c r="C7" t="s">
-        <v>25</v>
-      </c>
-      <c r="D7" t="s">
-        <v>26</v>
-      </c>
-      <c r="E7" t="s">
-        <v>27</v>
-      </c>
-      <c r="G7" s="3">
-        <v>4</v>
-      </c>
-      <c r="H7" s="3">
-        <v>0</v>
-      </c>
-      <c r="I7">
-        <v>0.87</v>
-      </c>
-      <c r="J7" s="4">
-        <v>3.48</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" ht="15" x14ac:dyDescent="0.2">
-      <c r="A8" s="3">
-        <v>7</v>
-      </c>
-      <c r="B8" s="3">
-        <v>1</v>
-      </c>
-      <c r="C8" t="s">
-        <v>28</v>
-      </c>
-      <c r="D8" t="s">
-        <v>29</v>
-      </c>
-      <c r="E8" t="s">
-        <v>30</v>
-      </c>
-      <c r="G8" s="3">
-        <v>1</v>
-      </c>
-      <c r="H8" s="3">
-        <v>0</v>
-      </c>
-      <c r="I8">
-        <v>1.92</v>
-      </c>
-      <c r="J8" s="4">
-        <v>1.92</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="J9" s="4">
-        <f>SUM(J2:J8)</f>
-        <v>12.38</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="D10" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="D11" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="D12" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="D13" s="2">
-        <v>197084001</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="D14" s="2">
-        <v>190160008</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="D15" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="D16" t="s">
-        <v>34</v>
       </c>
     </row>
   </sheetData>
